--- a/extra/excel_templates/ClubWorldCup_2025.xlsx
+++ b/extra/excel_templates/ClubWorldCup_2025.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="79">
   <si>
     <t xml:space="preserve">Country 1</t>
   </si>
@@ -48,9 +48,6 @@
     <t xml:space="preserve">GROUP_A</t>
   </si>
   <si>
-    <t xml:space="preserve">Miami</t>
-  </si>
-  <si>
     <t xml:space="preserve">BAYERN_MUENCHEN</t>
   </si>
   <si>
@@ -93,7 +90,7 @@
     <t xml:space="preserve">BOCA_JUNIORS</t>
   </si>
   <si>
-    <t xml:space="preserve">BENEFICA_LISSABON</t>
+    <t xml:space="preserve">BENFICA_LISSABON</t>
   </si>
   <si>
     <t xml:space="preserve">CR_FLAMENGO</t>
@@ -160,9 +157,6 @@
   </si>
   <si>
     <t xml:space="preserve">JUVENTUS_FC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BENFICA_LISSABON</t>
   </si>
   <si>
     <t xml:space="preserve">Sieger Gruppe A</t>
@@ -385,23 +379,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="00FFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -472,8 +449,8 @@
   </sheetPr>
   <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A48" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D65" activeCellId="0" sqref="D65"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E31" activeCellId="0" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -515,19 +492,16 @@
       <c r="D2" s="3" t="n">
         <v>45809.0833333333</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="D3" s="3" t="n">
         <v>45823.75</v>
@@ -535,13 +509,13 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="D4" s="3" t="n">
         <v>45823.875</v>
@@ -549,10 +523,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>7</v>
@@ -563,13 +537,13 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="C6" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" s="3" t="n">
         <v>45824.1666666667</v>
@@ -577,13 +551,13 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="D7" s="3" t="n">
         <v>45824.875</v>
@@ -591,13 +565,13 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="C8" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8" s="3" t="n">
         <v>45825</v>
@@ -605,13 +579,13 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="C9" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" s="3" t="n">
         <v>45825.125</v>
@@ -619,13 +593,13 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="D10" s="3" t="n">
         <v>45825.75</v>
@@ -633,13 +607,13 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="D11" s="3" t="n">
         <v>45825.875</v>
@@ -647,13 +621,13 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="C12" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D12" s="3" t="n">
         <v>45826</v>
@@ -661,13 +635,13 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="C13" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D13" s="3" t="n">
         <v>45826.125</v>
@@ -675,13 +649,13 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="D14" s="3" t="n">
         <v>45826.75</v>
@@ -689,13 +663,13 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="D15" s="3" t="n">
         <v>45826.875</v>
@@ -703,13 +677,13 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="C16" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D16" s="3" t="n">
         <v>45827</v>
@@ -717,13 +691,13 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="C17" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D17" s="3" t="n">
         <v>45827.125</v>
@@ -731,7 +705,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>5</v>
@@ -748,7 +722,7 @@
         <v>6</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>7</v>
@@ -759,13 +733,13 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="D20" s="3" t="n">
         <v>45828</v>
@@ -773,13 +747,13 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D21" s="3" t="n">
         <v>45828.125</v>
@@ -787,13 +761,13 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="D22" s="3" t="n">
         <v>45828.75</v>
@@ -801,13 +775,13 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D23" s="3" t="n">
         <v>45828.8333333333</v>
@@ -815,13 +789,13 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="D24" s="3" t="n">
         <v>45829</v>
@@ -829,13 +803,13 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D25" s="3" t="n">
         <v>45829.125</v>
@@ -843,13 +817,13 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="D26" s="3" t="n">
         <v>45829.75</v>
@@ -857,13 +831,13 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="D27" s="3" t="n">
         <v>45829.875</v>
@@ -871,13 +845,13 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D28" s="3" t="n">
         <v>45830</v>
@@ -885,13 +859,13 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D29" s="3" t="n">
         <v>45830.125</v>
@@ -899,13 +873,13 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="D30" s="3" t="n">
         <v>45830.75</v>
@@ -913,13 +887,13 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D31" s="3" t="n">
         <v>45830.875</v>
@@ -927,13 +901,13 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="D32" s="3" t="n">
         <v>45831</v>
@@ -941,13 +915,13 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D33" s="3" t="n">
         <v>45831.125</v>
@@ -955,13 +929,13 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D34" s="3" t="n">
         <v>45831.875</v>
@@ -969,13 +943,13 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="D35" s="3" t="n">
         <v>45831.875</v>
@@ -983,7 +957,7 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>5</v>
@@ -1000,7 +974,7 @@
         <v>6</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>7</v>
@@ -1011,13 +985,13 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D38" s="3" t="n">
         <v>45832.875</v>
@@ -1025,13 +999,13 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="D39" s="3" t="n">
         <v>45832.875</v>
@@ -1039,13 +1013,13 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D40" s="3" t="n">
         <v>45833.125</v>
@@ -1053,13 +1027,13 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="D41" s="3" t="n">
         <v>45833.125</v>
@@ -1067,13 +1041,13 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="D42" s="3" t="n">
         <v>45833.875</v>
@@ -1081,13 +1055,13 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D43" s="3" t="n">
         <v>45833.875</v>
@@ -1095,13 +1069,13 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D44" s="3" t="n">
         <v>45834.125</v>
@@ -1109,13 +1083,13 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="D45" s="3" t="n">
         <v>45834.125</v>
@@ -1123,13 +1097,13 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D46" s="3" t="n">
         <v>45834.875</v>
@@ -1137,13 +1111,13 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="D47" s="3" t="n">
         <v>45834.875</v>
@@ -1151,13 +1125,13 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D48" s="3" t="n">
         <v>45835.125</v>
@@ -1165,13 +1139,13 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="D49" s="3" t="n">
         <v>45835.125</v>
@@ -1179,13 +1153,13 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="D50" s="3" t="n">
         <v>45836.75</v>
@@ -1193,13 +1167,13 @@
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D51" s="3" t="n">
         <v>45836.9166666667</v>
@@ -1207,13 +1181,13 @@
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D52" s="3" t="n">
         <v>45837.75</v>
@@ -1221,13 +1195,13 @@
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D53" s="3" t="n">
         <v>45837.9166666667</v>
@@ -1235,13 +1209,13 @@
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D54" s="3" t="n">
         <v>45838.9166666667</v>
@@ -1249,13 +1223,13 @@
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D55" s="3" t="n">
         <v>45839.125</v>
@@ -1263,13 +1237,13 @@
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D56" s="3" t="n">
         <v>45839.875</v>
@@ -1277,13 +1251,13 @@
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D57" s="3" t="n">
         <v>45840.125</v>
@@ -1291,13 +1265,13 @@
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C58" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="D58" s="3" t="n">
         <v>45842.875</v>
@@ -1305,13 +1279,13 @@
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D59" s="3" t="n">
         <v>45843.125</v>
@@ -1319,13 +1293,13 @@
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D60" s="3" t="n">
         <v>45843.75</v>
@@ -1333,13 +1307,13 @@
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D61" s="3" t="n">
         <v>45843.875</v>
@@ -1347,13 +1321,13 @@
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C62" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="D62" s="3" t="n">
         <v>45846.875</v>
@@ -1361,13 +1335,13 @@
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D63" s="3" t="n">
         <v>45847.875</v>
@@ -1375,13 +1349,13 @@
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C64" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="D64" s="3" t="n">
         <v>45851.875</v>
@@ -3688,102 +3662,102 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3793,52 +3767,52 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -4075,57 +4049,57 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
